--- a/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_WKB_2020.xlsx
+++ b/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_WKB_2020.xlsx
@@ -1483,10 +1483,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-87.9713</v>
+        <v>-87.8714</v>
       </c>
       <c r="B2" t="n">
-        <v>-87.9332</v>
+        <v>-87.8618</v>
       </c>
       <c r="C2" t="s">
         <v>124</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30.2065</v>
+        <v>30.2928</v>
       </c>
       <c r="B3" t="n">
-        <v>30.48</v>
+        <v>30.301</v>
       </c>
       <c r="C3" t="s">
         <v>125</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-87.6508</v>
+        <v>-87.7507</v>
       </c>
       <c r="B4" t="n">
-        <v>-87.7224</v>
+        <v>-87.7603</v>
       </c>
       <c r="C4" t="s">
         <v>124</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>30.5783</v>
+        <v>30.4921</v>
       </c>
       <c r="B5" t="n">
-        <v>30.3093</v>
+        <v>30.4838</v>
       </c>
       <c r="C5" t="s">
         <v>125</v>

--- a/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_WKB_2020.xlsx
+++ b/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_WKB_2020.xlsx
@@ -1483,10 +1483,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-87.8714</v>
+        <v>-87.9168</v>
       </c>
       <c r="B2" t="n">
-        <v>-87.8618</v>
+        <v>-87.8859</v>
       </c>
       <c r="C2" t="s">
         <v>124</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30.2928</v>
+        <v>30.3022</v>
       </c>
       <c r="B3" t="n">
-        <v>30.301</v>
+        <v>30.329</v>
       </c>
       <c r="C3" t="s">
         <v>125</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-87.7507</v>
+        <v>-87.7052</v>
       </c>
       <c r="B4" t="n">
-        <v>-87.7603</v>
+        <v>-87.7362</v>
       </c>
       <c r="C4" t="s">
         <v>124</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>30.4921</v>
+        <v>30.4849</v>
       </c>
       <c r="B5" t="n">
-        <v>30.4838</v>
+        <v>30.4582</v>
       </c>
       <c r="C5" t="s">
         <v>125</v>
